--- a/Task_8/Sales_Data.xlsx
+++ b/Task_8/Sales_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - Faculty Of Engineering (Zagazig University)\Documents\My Files\Documents_Files\ME\IEEE\IEEE-CS-AI-25\Task 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive - Faculty Of Engineering (Zagazig University)\Documents\My Files\Documents_Files\ME\IEEE\IEEE-CS-AI-25\Task_8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54E8458-7E93-489C-937B-D7D7819BB6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B44203-C384-464E-A25E-2BBEB52FEBBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{17F244FA-563D-4B8C-8E7B-B88EDA2842D4}"/>
   </bookViews>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -138,6 +160,12 @@
   </si>
   <si>
     <t>Food</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>OR</t>
   </si>
 </sst>
 </file>
@@ -146,9 +174,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +202,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -233,10 +269,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -244,9 +280,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,7 +289,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,7 +546,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-985B-4CD6-92F1-60085EC74417}"/>
+              <c16:uniqueId val="{00000000-3221-45B3-A036-63B85FDEA99A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -666,7 +702,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-985B-4CD6-92F1-60085EC74417}"/>
+              <c16:uniqueId val="{00000001-3221-45B3-A036-63B85FDEA99A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -822,7 +858,163 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-985B-4CD6-92F1-60085EC74417}"/>
+              <c16:uniqueId val="{00000002-3221-45B3-A036-63B85FDEA99A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>Laptop</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sofa</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T-Shirt</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Smartphone</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Watch</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Chair</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jeans</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Headphones</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Coffee Table</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Jacket</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>TV</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sneakers</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Blender</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Handbag</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Dining Table</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Microwave</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Sunglasses</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Desk</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Gaming Mouse</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Sweater</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3221-45B3-A036-63B85FDEA99A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -836,11 +1028,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="163980464"/>
-        <c:axId val="163979984"/>
+        <c:axId val="1933800752"/>
+        <c:axId val="1933812272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="163980464"/>
+        <c:axId val="1933800752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +1075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163979984"/>
+        <c:crossAx val="1933812272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -891,7 +1083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163979984"/>
+        <c:axId val="1933812272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +1134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="163980464"/>
+        <c:crossAx val="1933800752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1570,22 +1762,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>194310</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93588E2-A342-74A8-A815-9C82372E7C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83726DEB-3659-2DCE-72D5-632B4896029C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1923,10 +2115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042B467E-2978-484E-B2E8-49C69666F373}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1939,24 +2131,27 @@
     <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="10" customFormat="1" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45717</v>
       </c>
@@ -1972,8 +2167,12 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="6">
+        <f>C2*D2</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45718</v>
       </c>
@@ -1989,8 +2188,12 @@
       <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F21" si="0">C3*D3</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45719</v>
       </c>
@@ -2006,8 +2209,12 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45720</v>
       </c>
@@ -2023,8 +2230,12 @@
       <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45721</v>
       </c>
@@ -2040,8 +2251,12 @@
       <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45722</v>
       </c>
@@ -2057,8 +2272,12 @@
       <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45723</v>
       </c>
@@ -2074,8 +2293,12 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45724</v>
       </c>
@@ -2091,8 +2314,12 @@
       <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45725</v>
       </c>
@@ -2108,8 +2335,12 @@
       <c r="E10" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45726</v>
       </c>
@@ -2125,8 +2356,12 @@
       <c r="E11" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45727</v>
       </c>
@@ -2142,8 +2377,12 @@
       <c r="E12" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45728</v>
       </c>
@@ -2159,8 +2398,12 @@
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45729</v>
       </c>
@@ -2176,8 +2419,12 @@
       <c r="E14" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45730</v>
       </c>
@@ -2193,8 +2440,12 @@
       <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45731</v>
       </c>
@@ -2209,6 +2460,10 @@
       </c>
       <c r="E16" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2227,6 +2482,10 @@
       <c r="E17" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>750</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -2244,6 +2503,10 @@
       <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -2261,6 +2524,10 @@
       <c r="E19" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -2278,6 +2545,10 @@
       <c r="E20" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -2294,6 +2565,10 @@
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21" x14ac:dyDescent="0.4">
@@ -2324,39 +2599,50 @@
         <v>217.5</v>
       </c>
       <c r="F23" s="9">
-        <f>$C$23*$D$23</f>
-        <v>15007.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F30" t="s">
-        <v>8</v>
+        <f>SUM(F2:F21)</f>
+        <v>10335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F24" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="9" cm="1">
+        <f t="array" ref="F25">SUM($C$2:$C$21*$D$2:$D$21)</f>
+        <v>10335</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21" xr:uid="{576AAFEB-2728-4C59-AC57-27D88069FD83}">
-      <formula1>$F$29:$F$33</formula1>
+      <formula1>$F$31:$F$35</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
